--- a/pkg_recommendation/evaluation-task.xlsx
+++ b/pkg_recommendation/evaluation-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="18120" tabRatio="995" activeTab="1"/>
+    <workbookView windowWidth="27100" windowHeight="13220" tabRatio="995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="20">
   <si>
     <t>task number</t>
   </si>
@@ -83,47 +83,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,18 +110,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,7 +156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +165,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,16 +194,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,17 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,22 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +453,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,7 +477,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,15 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,164 +546,146 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1025,12 +1011,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.0190476190476"/>
-    <col min="2" max="2" width="22.7904761904762"/>
-    <col min="3" max="3" width="20.9047619047619"/>
-    <col min="4" max="1025" width="11.5238095238095"/>
+    <col min="1" max="1" width="22.0178571428571"/>
+    <col min="2" max="2" width="22.7946428571429"/>
+    <col min="3" max="3" width="20.9017857142857"/>
+    <col min="4" max="1025" width="11.5267857142857"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1238,10 +1224,10 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1263,803 +1249,1103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:2">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:2">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:2">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:2">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:2">
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:2">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:2">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:2">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="1:2">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:2">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:2">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:2">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:2">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="1:2">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="1:2">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:2">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:2">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:2">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:2">
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:2">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:2">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:2">
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:2">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:2">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:2">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="1:2">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" spans="1:2">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" spans="1:2">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" spans="1:2">
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:2">
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" spans="1:2">
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" spans="1:2">
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" ht="14.25" spans="1:2">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" spans="1:2">
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:2">
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" spans="1:2">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" spans="1:2">
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" ht="14.25" spans="1:2">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" spans="1:2">
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" spans="1:2">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" ht="14.25" spans="1:2">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" spans="1:2">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" spans="1:2">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" spans="1:2">
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" ht="14.25" spans="1:2">
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" spans="1:2">
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" spans="1:2">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" spans="1:2">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" spans="1:2">
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:2">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" spans="1:2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" spans="1:2">
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="1:2">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" spans="1:2">
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="1:2">
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:2">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" ht="14.25" spans="1:2">
+      <c r="F89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" ht="14.25" spans="1:2">
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:2">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" ht="14.25" spans="1:2">
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" spans="1:2">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:2">
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" spans="1:2">
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" spans="1:2">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" spans="1:2">
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" spans="1:2">
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" ht="14.25" spans="1:2">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" spans="1:2">
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
         <v>9</v>
       </c>
     </row>

--- a/pkg_recommendation/evaluation-task.xlsx
+++ b/pkg_recommendation/evaluation-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27100" windowHeight="13220" tabRatio="995" activeTab="1"/>
+    <workbookView windowWidth="23400" windowHeight="17040" tabRatio="995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="22">
   <si>
     <t>task number</t>
   </si>
@@ -66,16 +66,22 @@
     <t>top1</t>
   </si>
   <si>
-    <t>top3</t>
-  </si>
-  <si>
     <t>top5</t>
   </si>
   <si>
     <t>top10</t>
   </si>
   <si>
+    <t>top15</t>
+  </si>
+  <si>
+    <t>top20</t>
+  </si>
+  <si>
     <t>query-id</t>
+  </si>
+  <si>
+    <t>rosindex check</t>
   </si>
 </sst>
 </file>
@@ -83,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,30 +102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,45 +117,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,15 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,23 +194,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +210,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,25 +261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,31 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,43 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,31 +363,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +403,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -446,30 +452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,11 +479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +511,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,154 +530,163 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,8 +1013,8 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
@@ -1166,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1182,15 +1188,39 @@
       <c r="E24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0.33</v>
+      </c>
+      <c r="C25">
+        <v>0.45</v>
+      </c>
+      <c r="D25">
+        <v>0.49</v>
+      </c>
+      <c r="E25">
+        <v>0.51</v>
+      </c>
+      <c r="F25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>4</v>
+      </c>
+      <c r="B26">
+        <v>0.07</v>
+      </c>
+      <c r="C26">
+        <v>0.14</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1221,17 +1251,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -1248,1105 +1278,2731 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2">
+        <v>194</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(H2&gt;19,"NA",H2+1)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3">
+        <v>199</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I34" si="0">IF(H3&gt;19,"NA",H3+1)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4">
+        <v>319</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7">
+        <v>64</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9">
+        <v>179</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10">
+        <v>132</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11">
+        <v>96</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12">
+        <v>201</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13">
+        <v>66</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15">
+        <v>493</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16">
+        <v>123</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
       <c r="F17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17">
+        <v>25</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18">
+        <v>62</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
       <c r="F19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
       <c r="F23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23">
+        <v>24</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25">
+        <v>175</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26">
+        <v>69</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27">
+        <v>107</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29">
+        <v>116</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
       <c r="F30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30">
+        <v>134</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31">
+        <v>77</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
       <c r="F32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32">
+        <v>141</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
       <c r="F33">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33">
+        <v>207</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I66" si="1">IF(H35&gt;19,"NA",H35+1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
       <c r="F37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
       <c r="F38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38">
+        <v>46</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
       <c r="F39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39">
+        <v>68</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
       <c r="F43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
       <c r="F44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
       <c r="F45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
       <c r="F46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
       <c r="F47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
       <c r="F48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
       <c r="F50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
       <c r="F52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
       <c r="F53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
       <c r="F55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
       <c r="F56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56">
+        <v>157</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
       <c r="F57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57">
+        <v>24</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59">
+        <v>37</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
       <c r="F60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60">
+        <v>331</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
       <c r="F61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61">
+        <v>211</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
       <c r="F62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62">
+        <v>29</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>13</v>
+      </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
       <c r="F66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67">
+        <v>51</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I98" si="2">IF(H67&gt;19,"NA",H67+1)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69">
+        <v>215</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70">
+        <v>50</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
       </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
       <c r="F72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72">
+        <v>57</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>13</v>
       </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
       <c r="F73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
       <c r="F74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74">
+        <v>191</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
       <c r="F75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
       <c r="F76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
       <c r="F77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77">
+        <v>25</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>16</v>
+      </c>
       <c r="F78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78">
+        <v>22</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
       </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
       <c r="F79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
       <c r="F80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80">
+        <v>21</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
       <c r="F81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
       <c r="F82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82">
+        <v>178</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83">
+        <v>51</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
       <c r="F84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
       <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85">
+        <v>28</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
       <c r="F86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>7</v>
       </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
       <c r="F89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="H89">
+        <v>13</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
       <c r="F90" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="H90">
+        <v>60</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
       <c r="F91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="H91">
+        <v>22</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
       <c r="F92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="H92">
+        <v>114</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
       <c r="F93" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="H93">
+        <v>112</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
       <c r="F94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="H94">
+        <v>23</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
       <c r="F95" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="H95">
+        <v>150</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>17</v>
+      </c>
       <c r="F96" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="H96">
+        <v>35</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>12</v>
+      </c>
       <c r="F97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="H97">
+        <v>34</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
       <c r="F98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>8</v>
       </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
       <c r="F99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99">
+        <v>29</v>
+      </c>
+      <c r="I99" t="str">
+        <f>IF(H99&gt;19,"NA",H99+1)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
       <c r="F100" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="H100">
+        <v>70</v>
+      </c>
+      <c r="I100" t="str">
+        <f>IF(H100&gt;19,"NA",H100+1)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
       </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
       <c r="F101" t="s">
         <v>9</v>
+      </c>
+      <c r="H101">
+        <v>11</v>
+      </c>
+      <c r="I101">
+        <f>IF(H101&gt;19,"NA",H101+1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>49</v>
+      </c>
+      <c r="C103">
+        <v>84</v>
+      </c>
+      <c r="D103">
+        <v>72</v>
+      </c>
+      <c r="E103">
+        <v>46</v>
+      </c>
+      <c r="F103">
+        <v>42</v>
+      </c>
+      <c r="I103">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/pkg_recommendation/evaluation-task.xlsx
+++ b/pkg_recommendation/evaluation-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="17040" tabRatio="995"/>
+    <workbookView windowWidth="18660" windowHeight="17940" tabRatio="995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="22">
   <si>
     <t>task number</t>
   </si>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,9 +102,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,15 +146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,19 +161,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,10 +185,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,9 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,21 +216,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,22 +238,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,19 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,49 +279,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +321,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,49 +381,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,25 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +452,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +512,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,15 +544,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -528,165 +552,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,16 +1013,16 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.0178571428571"/>
-    <col min="2" max="2" width="22.7946428571429"/>
-    <col min="3" max="3" width="20.9017857142857"/>
-    <col min="4" max="1025" width="11.5267857142857"/>
+    <col min="1" max="1" width="22.0190476190476"/>
+    <col min="2" max="2" width="22.7904761904762"/>
+    <col min="3" max="3" width="20.9047619047619"/>
+    <col min="4" max="1025" width="11.5238095238095"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1253,11 +1253,11 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1421,8 +1421,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1448,8 +1448,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1475,8 +1475,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1502,8 +1502,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1529,8 +1529,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1961,8 +1961,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1988,8 +1988,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -2042,8 +2042,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2069,8 +2069,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2096,8 +2096,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
+      <c r="B32">
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2123,8 +2123,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2204,8 +2204,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2231,8 +2231,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2744,8 +2744,8 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>9</v>
+      <c r="B56">
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -2771,8 +2771,8 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>9</v>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -2798,8 +2798,8 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>9</v>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -2825,8 +2825,8 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>9</v>
+      <c r="B59">
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2852,8 +2852,8 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>9</v>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -2879,8 +2879,8 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>9</v>
+      <c r="B61">
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -2907,7 +2907,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -2933,8 +2933,8 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>9</v>
+      <c r="B63">
+        <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -3014,8 +3014,8 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>9</v>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -3060,7 +3060,7 @@
         <v>51</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I98" si="2">IF(H67&gt;19,"NA",H67+1)</f>
+        <f t="shared" ref="I67:I101" si="2">IF(H67&gt;19,"NA",H67+1)</f>
         <v>NA</v>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -3392,8 +3392,8 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>9</v>
+      <c r="B80">
+        <v>1</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -3554,8 +3554,8 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>9</v>
+      <c r="B86">
+        <v>1</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -3797,8 +3797,8 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>9</v>
+      <c r="B95">
+        <v>17</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -3824,8 +3824,8 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>9</v>
+      <c r="B96">
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -3851,8 +3851,8 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>9</v>
+      <c r="B97">
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -3924,7 +3924,7 @@
         <v>29</v>
       </c>
       <c r="I99" t="str">
-        <f>IF(H99&gt;19,"NA",H99+1)</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
     </row>
@@ -3932,8 +3932,8 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>9</v>
+      <c r="B100">
+        <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -3951,7 +3951,7 @@
         <v>70</v>
       </c>
       <c r="I100" t="str">
-        <f>IF(H100&gt;19,"NA",H100+1)</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
     </row>
@@ -3959,8 +3959,8 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>9</v>
+      <c r="B101">
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -3978,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <f>IF(H101&gt;19,"NA",H101+1)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="B103">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>84</v>

--- a/pkg_recommendation/evaluation-task.xlsx
+++ b/pkg_recommendation/evaluation-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="31995" windowHeight="18120" tabRatio="995"/>
+    <workbookView windowHeight="17120" tabRatio="995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="34">
   <si>
     <t>Method</t>
   </si>
@@ -69,22 +69,13 @@
     <t>top20</t>
   </si>
   <si>
-    <t>RPKG without Robot Feature</t>
+    <t>Inclusion Group</t>
+  </si>
+  <si>
+    <t>Exclusion Group</t>
   </si>
   <si>
     <t>acc lost</t>
-  </si>
-  <si>
-    <t>RPKG without Sensor Feature</t>
-  </si>
-  <si>
-    <t>RPKG without Category Feature</t>
-  </si>
-  <si>
-    <t>RPKG without Function Feature</t>
-  </si>
-  <si>
-    <t>RPKG without Characteristics Feature</t>
   </si>
   <si>
     <t>Sample Size</t>
@@ -135,10 +126,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -190,23 +181,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,21 +214,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +228,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,24 +265,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,19 +288,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,7 +304,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,31 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,55 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,79 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,15 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -545,6 +527,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,135 +598,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3446,7 +3437,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPKG</c:v>
+                  <c:v>Inclusion Group</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3589,7 +3580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPKG without Robot Feature</c:v>
+                  <c:v>Exclusion Group</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4019,11 +4010,10 @@
     <a:solidFill>
       <a:schemeClr val="lt1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -5487,6 +5477,2554 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116696638539217"/>
+          <c:y val="0.192967223789885"/>
+          <c:w val="0.850933739106377"/>
+          <c:h val="0.637247666594313"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$51:$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$51:$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="677276837"/>
+        <c:axId val="822844829"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677276837"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>5 top levels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822844829"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="822844829"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>search accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677276837"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.259063674087573"/>
+          <c:y val="0.0410021069178229"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" b="1"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116696638539217"/>
+          <c:y val="0.192967223789885"/>
+          <c:w val="0.850933739106377"/>
+          <c:h val="0.637247666594313"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$70:$F$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$71:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$70:$F$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$72:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="677276837"/>
+        <c:axId val="822844829"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677276837"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>5 top levels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822844829"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="822844829"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>search accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677276837"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.259063674087573"/>
+          <c:y val="0.0410021069178229"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" b="1"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116696638539217"/>
+          <c:y val="0.192967223789885"/>
+          <c:w val="0.850933739106377"/>
+          <c:h val="0.637247666594313"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$90:$F$90</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$91:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.519230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73076923076923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$90:$F$90</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$92:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.153846153846153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.442307692307692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.519230769230769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.557692307692307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.557692307692307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="677276837"/>
+        <c:axId val="822844829"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677276837"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>5 top levels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822844829"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="822844829"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>search accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677276837"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.259063674087573"/>
+          <c:y val="0.0410021069178229"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" b="1"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116696638539217"/>
+          <c:y val="0.192967223789885"/>
+          <c:w val="0.850933739106377"/>
+          <c:h val="0.637247666594313"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$108:$F$108</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$109:$F$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.548780487804878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.695121951219512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74390243902439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.768292682926829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.780487804878048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exclusion Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$108:$F$108</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>top10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>top15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>top20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$110:$F$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.280487804878048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.304878048780487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.304878048780487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.304878048780487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="677276837"/>
+        <c:axId val="822844829"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677276837"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>5 top levels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822844829"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="822844829"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>search accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677276837"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.259063674087573"/>
+          <c:y val="0.0410021069178229"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" b="1"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5647,6 +8185,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7713,18 +10411,2102 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581660</xdr:colOff>
+      <xdr:colOff>580390</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>78105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>21590</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:to>
@@ -7734,8 +12516,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8036560" y="78105"/>
-        <a:ext cx="7893050" cy="4114165"/>
+        <a:off x="8847455" y="78105"/>
+        <a:ext cx="8458835" cy="4494530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7764,8 +12546,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16252190" y="124460"/>
-        <a:ext cx="7082790" cy="4170045"/>
+        <a:off x="17630140" y="124460"/>
+        <a:ext cx="7545705" cy="4550410"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7778,13 +12560,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:colOff>538480</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>501015</xdr:colOff>
+      <xdr:colOff>499745</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:to>
@@ -7794,8 +12576,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7994650" y="5019675"/>
-        <a:ext cx="4571365" cy="2925445"/>
+        <a:off x="8805545" y="5555615"/>
+        <a:ext cx="4879975" cy="3199765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7808,15 +12590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
+      <xdr:colOff>491490</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>659765</xdr:colOff>
+      <xdr:colOff>659130</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7824,12 +12606,132 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8715375" y="23460075"/>
-        <a:ext cx="7082790" cy="4170045"/>
+        <a:off x="9578340" y="26113740"/>
+        <a:ext cx="7545705" cy="4208780"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438785</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8744585" y="9368790"/>
+        <a:ext cx="4879975" cy="3199765"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467995</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8735060" y="13151485"/>
+        <a:ext cx="4879975" cy="3199765"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506095</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>189865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8773160" y="16934180"/>
+        <a:ext cx="4879975" cy="3199765"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8800465" y="20704175"/>
+        <a:ext cx="4879975" cy="3199765"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8096,21 +12998,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="T144" sqref="T144"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.0190476190476"/>
-    <col min="2" max="2" width="22.7904761904762"/>
-    <col min="3" max="3" width="20.9047619047619"/>
-    <col min="4" max="1025" width="11.5238095238095"/>
+    <col min="1" max="1" width="22.0178571428571"/>
+    <col min="2" max="2" width="22.7946428571429"/>
+    <col min="3" max="3" width="20.9017857142857"/>
+    <col min="4" max="6" width="13"/>
+    <col min="7" max="1025" width="11.5267857142857"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="16.8" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8130,7 +13033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="16.8" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -8150,7 +13053,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:6">
+    <row r="3" ht="16.8" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -8170,7 +13073,7 @@
         <v>0.58</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="16.8" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -8190,7 +13093,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="16.8" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -8210,7 +13113,7 @@
         <v>0.28</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" ht="16.8" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -8230,7 +13133,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="29" ht="18.75" spans="1:6">
+    <row r="29" ht="16.8" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -8250,9 +13153,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="18.75" spans="1:6">
+    <row r="30" ht="16.8" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3">
         <v>0.866666666666666</v>
@@ -8270,9 +13173,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="18.75" spans="1:6">
+    <row r="31" ht="16.8" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3">
         <v>0.266666666666666</v>
@@ -8290,9 +13193,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" ht="18.75" spans="1:6">
+    <row r="32" ht="16.8" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ref="B32:F32" si="0">B30-B31</f>
@@ -8315,7 +13218,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" ht="18.75" spans="1:6">
+    <row r="51" ht="16.8" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
@@ -8335,49 +13238,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" ht="18.75" spans="1:6">
+    <row r="52" ht="16.8" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="2">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3">
         <v>0.75</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>0.875</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>0.9375</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>0.9375</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="53" ht="18.75" spans="1:6">
+    <row r="53" ht="16.8" spans="1:6">
       <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:6">
+      <c r="A54" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="54" ht="18.75" spans="1:6">
-      <c r="A54" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" ref="B54:F54" si="1">B52-B53</f>
@@ -8400,7 +13303,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="70" ht="18.75" spans="1:6">
+    <row r="70" ht="16.8" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
@@ -8420,9 +13323,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" ht="18.75" spans="1:6">
+    <row r="71" ht="16.8" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -8440,9 +13343,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="18.75" spans="1:6">
+    <row r="72" ht="16.8" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B72" s="3">
         <v>0.5</v>
@@ -8460,9 +13363,9 @@
         <v>0.857142857142857</v>
       </c>
     </row>
-    <row r="73" ht="18.75" spans="1:6">
+    <row r="73" ht="16.8" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" s="3">
         <f t="shared" ref="B73:F73" si="2">B71-B72</f>
@@ -8485,7 +13388,7 @@
         <v>0.142857142857143</v>
       </c>
     </row>
-    <row r="90" ht="18.75" spans="1:6">
+    <row r="90" ht="16.8" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
@@ -8505,49 +13408,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" ht="18.75" spans="1:6">
+    <row r="91" ht="16.8" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="2">
+        <v>17</v>
+      </c>
+      <c r="B91" s="3">
         <v>0.519230769230769</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="3">
         <v>0.692307692307692</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>0.73076923076923</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>0.75</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="92" ht="18.75" spans="1:6">
+    <row r="92" ht="16.8" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="2">
+        <v>18</v>
+      </c>
+      <c r="B92" s="3">
         <v>0.153846153846153</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>0.442307692307692</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>0.519230769230769</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>0.557692307692307</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>0.557692307692307</v>
       </c>
     </row>
-    <row r="93" ht="18.75" spans="1:6">
+    <row r="93" ht="16.8" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93" s="2">
         <f t="shared" ref="B93:F93" si="3">B91-B92</f>
@@ -8570,7 +13473,7 @@
         <v>0.192307692307693</v>
       </c>
     </row>
-    <row r="108" ht="18.75" spans="1:6">
+    <row r="108" ht="16.8" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
@@ -8590,49 +13493,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" ht="18.75" spans="1:6">
+    <row r="109" ht="16.8" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="2">
+        <v>17</v>
+      </c>
+      <c r="B109" s="3">
         <v>0.548780487804878</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>0.695121951219512</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>0.74390243902439</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="3">
         <v>0.768292682926829</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="3">
         <v>0.780487804878048</v>
       </c>
     </row>
-    <row r="110" ht="18.75" spans="1:6">
+    <row r="110" ht="16.8" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B110" s="2">
+        <v>18</v>
+      </c>
+      <c r="B110" s="3">
         <v>0.195121951219512</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <v>0.280487804878048</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>0.304878048780487</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="3">
         <v>0.304878048780487</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="3">
         <v>0.304878048780487</v>
       </c>
     </row>
-    <row r="111" ht="18.75" spans="1:6">
+    <row r="111" ht="16.8" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B111" s="2">
         <f t="shared" ref="B111:F111" si="4">B109-B110</f>
@@ -8655,9 +13558,9 @@
         <v>0.475609756097561</v>
       </c>
     </row>
-    <row r="139" ht="18.75" spans="1:6">
+    <row r="139" ht="16.8" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>12</v>
@@ -8675,9 +13578,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" ht="18.75" spans="1:6">
+    <row r="140" ht="16.8" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B140" s="3">
         <v>0.7</v>
@@ -8695,9 +13598,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="141" ht="18.75" spans="1:6">
+    <row r="141" ht="16.8" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B141" s="3">
         <v>0.65</v>
@@ -8715,9 +13618,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="142" ht="18.75" spans="1:6">
+    <row r="142" ht="16.8" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B142" s="3">
         <v>0.5</v>
@@ -8735,9 +13638,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="143" ht="18.75" spans="1:6">
+    <row r="143" ht="16.8" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B143" s="3">
         <v>0.625</v>
@@ -8755,9 +13658,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="144" ht="18.75" spans="1:6">
+    <row r="144" ht="16.8" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B144" s="3">
         <v>0.58</v>
@@ -8775,9 +13678,9 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="145" ht="18.75" spans="1:6">
+    <row r="145" ht="16.8" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B145" s="3">
         <v>0.55</v>
@@ -8795,9 +13698,9 @@
         <v>0.816666666666666</v>
       </c>
     </row>
-    <row r="146" ht="18.75" spans="1:6">
+    <row r="146" ht="16.8" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B146" s="3">
         <v>0.557142857142857</v>
@@ -8815,9 +13718,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="147" ht="18.75" spans="1:6">
+    <row r="147" ht="16.8" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B147" s="3">
         <v>0.575</v>
@@ -8835,9 +13738,9 @@
         <v>0.7875</v>
       </c>
     </row>
-    <row r="148" ht="18.75" spans="1:6">
+    <row r="148" ht="16.8" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B148" s="3">
         <v>0.6</v>
@@ -8855,9 +13758,9 @@
         <v>0.822222222222222</v>
       </c>
     </row>
-    <row r="149" ht="18.75" spans="1:6">
+    <row r="149" ht="16.8" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B149" s="3">
         <v>0.56</v>
@@ -8872,6 +13775,226 @@
         <v>0.78</v>
       </c>
       <c r="F149" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="161" ht="16.8" spans="1:6">
+      <c r="A161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" ht="16.8" spans="1:6">
+      <c r="A162" s="2">
+        <v>10</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="163" ht="16.8" spans="1:6">
+      <c r="A163" s="2">
+        <v>20</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="164" ht="16.8" spans="1:6">
+      <c r="A164" s="2">
+        <v>30</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="165" ht="16.8" spans="1:6">
+      <c r="A165" s="2">
+        <v>40</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.725</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.775</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="166" ht="16.8" spans="1:6">
+      <c r="A166" s="2">
+        <v>50</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="167" ht="16.8" spans="1:6">
+      <c r="A167" s="2">
+        <v>60</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.816666666666666</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0.816666666666666</v>
+      </c>
+    </row>
+    <row r="168" ht="16.8" spans="1:6">
+      <c r="A168" s="2">
+        <v>70</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0.557142857142857</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.771428571428571</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.785714285714285</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="169" ht="16.8" spans="1:6">
+      <c r="A169" s="2">
+        <v>80</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0.575</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0.725</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.7625</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.775</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="170" ht="16.8" spans="1:6">
+      <c r="A170" s="2">
+        <v>90</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.788888888888888</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.811111111111111</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.822222222222222</v>
+      </c>
+    </row>
+    <row r="171" ht="16.8" spans="1:6">
+      <c r="A171" s="2">
+        <v>100</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="F171" s="3">
         <v>0.79</v>
       </c>
     </row>
@@ -8895,11 +14018,11 @@
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.2"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -8917,7 +14040,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8928,10 +14051,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -8955,10 +14078,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8982,16 +14105,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>319</v>
@@ -9009,13 +14132,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -9033,7 +14156,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9063,10 +14186,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9090,10 +14213,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -9117,10 +14240,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -9147,7 +14270,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9174,13 +14297,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>96</v>
@@ -9201,7 +14324,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -9225,10 +14348,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -9282,13 +14405,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>493</v>
@@ -9309,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -9336,10 +14459,10 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -9363,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -9387,13 +14510,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -9414,19 +14537,19 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -9441,16 +14564,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -9468,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -9495,13 +14618,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -9522,16 +14645,16 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>8</v>
@@ -9549,13 +14672,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -9576,16 +14699,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>69</v>
@@ -9603,16 +14726,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>107</v>
@@ -9630,10 +14753,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -9657,10 +14780,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -9684,10 +14807,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>15</v>
@@ -9714,7 +14837,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -9738,13 +14861,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F32">
         <v>14</v>
@@ -9765,13 +14888,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F33">
         <v>19</v>
@@ -9789,19 +14912,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>12</v>
@@ -9816,10 +14939,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -9828,7 +14951,7 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -9873,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -9897,16 +15020,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38">
         <v>13</v>
@@ -9927,16 +15050,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>68</v>
@@ -9954,19 +15077,19 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -9981,16 +15104,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>41</v>
@@ -10008,16 +15131,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>12</v>
@@ -10035,13 +15158,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -10062,13 +15185,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -10089,13 +15212,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -10116,13 +15239,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -10143,19 +15266,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -10170,13 +15293,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -10197,7 +15320,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -10206,7 +15329,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -10224,10 +15347,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -10236,7 +15359,7 @@
         <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -10251,7 +15374,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <v>11</v>
@@ -10278,7 +15401,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -10305,7 +15428,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -10314,7 +15437,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -10329,22 +15452,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -10359,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -10386,16 +15509,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>157</v>
@@ -10413,16 +15536,16 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>24</v>
@@ -10440,7 +15563,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -10449,7 +15572,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -10467,16 +15590,16 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>37</v>
@@ -10494,16 +15617,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>331</v>
@@ -10521,16 +15644,16 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>211</v>
@@ -10548,16 +15671,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>29</v>
@@ -10575,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -10599,22 +15722,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E64">
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -10629,19 +15752,19 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -10656,19 +15779,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -10680,19 +15803,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>51</v>
@@ -10707,22 +15830,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="2"/>
@@ -10734,13 +15857,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -10764,13 +15887,13 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -10788,22 +15911,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="2"/>
@@ -10815,16 +15938,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -10845,7 +15968,7 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D73">
         <v>11</v>
@@ -10869,13 +15992,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -10896,22 +16019,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
@@ -10923,22 +16046,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
@@ -10953,16 +16076,16 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>25</v>
@@ -10977,19 +16100,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E78">
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>22</v>
@@ -11004,22 +16127,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E79">
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
@@ -11034,10 +16157,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -11058,13 +16181,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -11073,7 +16196,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="2"/>
@@ -11091,13 +16214,13 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>178</v>
@@ -11115,10 +16238,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -11139,13 +16262,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -11154,7 +16277,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="2"/>
@@ -11169,10 +16292,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -11196,7 +16319,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -11205,7 +16328,7 @@
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -11220,22 +16343,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="2"/>
@@ -11253,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -11262,7 +16385,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="2"/>
@@ -11277,13 +16400,13 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D89">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -11307,13 +16430,13 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>60</v>
@@ -11331,10 +16454,10 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -11358,10 +16481,10 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -11388,13 +16511,13 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>112</v>
@@ -11409,16 +16532,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -11439,16 +16562,16 @@
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>150</v>
@@ -11466,16 +16589,16 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E96">
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>35</v>
@@ -11493,10 +16616,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E97">
         <v>12</v>
@@ -11517,22 +16640,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="2"/>
@@ -11550,7 +16673,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -11574,16 +16697,16 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>70</v>
@@ -11601,16 +16724,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D101">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>11</v>
@@ -11622,7 +16745,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B103">
         <v>21</v>
